--- a/rooms.xlsx
+++ b/rooms.xlsx
@@ -852,19 +852,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Occupied</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>08:40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>09:40</t>
-        </is>
-      </c>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -898,11 +890,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1478,19 +1478,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Occupied</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>08:40</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">

--- a/rooms.xlsx
+++ b/rooms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Nextech-Hackathon\NexTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C639ADA-E8B1-491F-BE88-94DFAEAEDCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1FE189-9393-47DE-8246-BBC1CD4A8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="11">
   <si>
     <t>Floor</t>
   </si>
@@ -46,13 +46,13 @@
     <t>09:20:00</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>09:20</t>
   </si>
   <si>
     <t>Available</t>
+  </si>
+  <si>
+    <t>08:30</t>
   </si>
 </sst>
 </file>
@@ -108,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +619,7 @@
         <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,7 +630,7 @@
         <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,7 +641,7 @@
         <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,7 +652,7 @@
         <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -662,16 +663,10 @@
         <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -679,16 +674,10 @@
         <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -696,16 +685,10 @@
         <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -713,10 +696,10 @@
         <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -724,16 +707,10 @@
         <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -741,16 +718,10 @@
         <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -758,16 +729,10 @@
         <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -775,10 +740,10 @@
         <v>302</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -786,16 +751,10 @@
         <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -803,16 +762,10 @@
         <v>304</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -820,16 +773,10 @@
         <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -837,16 +784,10 @@
         <v>306</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -854,10 +795,10 @@
         <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -865,10 +806,10 @@
         <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -876,16 +817,10 @@
         <v>309</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -893,10 +828,10 @@
         <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -904,13 +839,7 @@
         <v>401</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,7 +850,7 @@
         <v>402</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,13 +861,7 @@
         <v>403</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,13 +872,7 @@
         <v>404</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,13 +883,7 @@
         <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,13 +894,7 @@
         <v>406</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,7 +905,7 @@
         <v>407</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1011,7 +916,7 @@
         <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,14 +927,9 @@
         <v>409</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -1039,12 +939,6 @@
         <v>410</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1056,7 +950,13 @@
         <v>501</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1067,7 +967,13 @@
         <v>502</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,7 +984,13 @@
         <v>503</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1089,7 +1001,13 @@
         <v>504</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,7 +1018,13 @@
         <v>505</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1111,7 +1035,13 @@
         <v>506</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,10 +1052,16 @@
         <v>507</v>
       </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1133,10 +1069,10 @@
         <v>508</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1144,10 +1080,16 @@
         <v>509</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1155,7 +1097,13 @@
         <v>510</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/rooms.xlsx
+++ b/rooms.xlsx
@@ -744,11 +744,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -759,7 +767,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Occupied</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1007,11 +1015,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1318,11 +1334,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">

--- a/rooms.xlsx
+++ b/rooms.xlsx
@@ -887,11 +887,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -902,11 +910,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -955,11 +971,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -985,11 +1009,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1068,7 +1100,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Occupied</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1098,11 +1130,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
